--- a/geopolrisk-py/tests/comtrade.xlsx
+++ b/geopolrisk-py/tests/comtrade.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akoyamparamb\Documents\GitHub\geopolrisk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akoyamparamb\Documents\GitHub\geopolrisk\geopolrisk-py\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08DBCE0-ECFC-4DD8-8CB2-89D7C92AD087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B56D1F-EDF5-4F20-B5B6-7E3A7F0DAD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4830" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="comtrade (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
